--- a/01.requirement/相关类图/实现类图/中英文词汇对照汇总.xlsx
+++ b/01.requirement/相关类图/实现类图/中英文词汇对照汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="213">
   <si>
     <t>营业员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>录入日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Layout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,14 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最近一次编辑的日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastModifyDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>存储路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -678,10 +666,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RegisterDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -794,14 +778,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RegisterUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑的用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>录入用户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -863,6 +839,34 @@
   </si>
   <si>
     <t>部分命名规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入日期、时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddDate\Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastModifyDate\Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑日期、时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加的部分数据库字段规范</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -969,6 +973,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -977,12 +990,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184:XFD184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1292,10 +1299,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -1307,10 +1314,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1323,10 +1330,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1347,13 +1354,13 @@
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1">
@@ -1361,10 +1368,10 @@
         <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1">
@@ -1372,10 +1379,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1">
@@ -1388,10 +1395,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1">
@@ -1404,23 +1411,23 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>39</v>
@@ -1436,26 +1443,26 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1468,240 +1475,240 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="2" customFormat="1"/>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="2" customFormat="1"/>
     <row r="54" spans="1:2">
-      <c r="A54" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" s="7"/>
+      <c r="A54" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="10"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1722,18 +1729,18 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1746,14 +1753,14 @@
     </row>
     <row r="67" spans="1:2" s="2" customFormat="1"/>
     <row r="69" spans="1:2">
-      <c r="A69" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B69" s="7"/>
+      <c r="A69" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="10"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>0</v>
@@ -1769,7 +1776,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>13</v>
@@ -1849,73 +1856,73 @@
     </row>
     <row r="84" spans="1:3" s="2" customFormat="1"/>
     <row r="86" spans="1:3">
-      <c r="A86" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B86" s="7"/>
+      <c r="A86" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="10"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="C87" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C93" s="3"/>
     </row>
@@ -1941,279 +1948,284 @@
     </row>
     <row r="99" spans="1:3" s="2" customFormat="1"/>
     <row r="101" spans="1:3">
-      <c r="A101" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B101" s="7"/>
+      <c r="A101" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" s="10"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:2" s="2" customFormat="1"/>
     <row r="119" spans="1:2">
-      <c r="A119" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" s="7"/>
+      <c r="A119" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B119" s="10"/>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="1:2" s="2" customFormat="1"/>
     <row r="133" spans="1:2">
-      <c r="A133" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B133" s="7"/>
+      <c r="A133" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B133" s="10"/>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="1:2" s="2" customFormat="1"/>
     <row r="146" spans="1:2">
-      <c r="A146" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B146" s="7"/>
+      <c r="A146" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B146" s="10"/>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B154" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156" spans="1:2" s="2" customFormat="1"/>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="161" spans="1:2" s="2" customFormat="1"/>
     <row r="175" spans="1:2">
-      <c r="A175" s="11" t="s">
-        <v>211</v>
+      <c r="A175" s="8" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B176" s="10"/>
+      <c r="A176" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B176" s="9"/>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B177" s="10"/>
+      <c r="A177" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B177" s="9"/>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="7" t="s">
+        <v>212</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A5:A7">
     <sortCondition descending="1" ref="A5"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A86:B86"/>
     <mergeCell ref="A176:B176"/>
     <mergeCell ref="A177:B177"/>
     <mergeCell ref="A119:B119"/>
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A86:B86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.requirement/相关类图/实现类图/中英文词汇对照汇总.xlsx
+++ b/01.requirement/相关类图/实现类图/中英文词汇对照汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="215">
   <si>
     <t>营业员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,18 +670,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统生成的自增标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>源自DB自增或程序设定的自增规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单据类、证照类、品牌等任意类型的编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>非标识或编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -714,10 +706,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Remarks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -867,6 +855,26 @@
   </si>
   <si>
     <t>追加的部分数据库字段规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>助记符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统生成的自增标识 - 主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要数据编号 - 外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通的数字、编号 - 不做主键或外键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,17 +987,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="A184" sqref="A184:XFD184"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1299,10 +1307,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -1330,10 +1338,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1354,13 +1362,13 @@
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1">
@@ -1368,10 +1376,10 @@
         <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1">
@@ -1379,10 +1387,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1">
@@ -1395,10 +1403,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1">
@@ -1411,23 +1419,23 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>39</v>
@@ -1539,10 +1547,10 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1626,7 +1634,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>128</v>
@@ -1642,7 +1650,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>160</v>
@@ -1650,7 +1658,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>161</v>
@@ -1658,7 +1666,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>162</v>
@@ -1666,49 +1674,49 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="2" customFormat="1"/>
     <row r="54" spans="1:2">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="10"/>
+      <c r="B54" s="11"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1751,12 +1759,20 @@
         <v>44</v>
       </c>
     </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
     <row r="67" spans="1:2" s="2" customFormat="1"/>
     <row r="69" spans="1:2">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="10"/>
+      <c r="B69" s="11"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
@@ -1776,7 +1792,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>13</v>
@@ -1856,10 +1872,10 @@
     </row>
     <row r="84" spans="1:3" s="2" customFormat="1"/>
     <row r="86" spans="1:3">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B86" s="10"/>
+      <c r="B86" s="11"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
@@ -1869,7 +1885,7 @@
         <v>49</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1901,28 +1917,28 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C93" s="3"/>
     </row>
@@ -1948,10 +1964,10 @@
     </row>
     <row r="99" spans="1:3" s="2" customFormat="1"/>
     <row r="101" spans="1:3">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B101" s="10"/>
+      <c r="B101" s="11"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
@@ -2027,10 +2043,10 @@
     </row>
     <row r="117" spans="1:2" s="2" customFormat="1"/>
     <row r="119" spans="1:2">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B119" s="10"/>
+      <c r="B119" s="11"/>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
@@ -2058,10 +2074,10 @@
     </row>
     <row r="130" spans="1:2" s="2" customFormat="1"/>
     <row r="133" spans="1:2">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="10"/>
+      <c r="B133" s="11"/>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="4" t="s">
@@ -2081,7 +2097,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>136</v>
@@ -2089,10 +2105,10 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2113,10 +2129,10 @@
     </row>
     <row r="144" spans="1:2" s="2" customFormat="1"/>
     <row r="146" spans="1:2">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B146" s="10"/>
+      <c r="B146" s="11"/>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="3" t="s">
@@ -2128,7 +2144,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>117</v>
@@ -2152,7 +2168,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>158</v>
@@ -2160,7 +2176,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>124</v>
@@ -2191,24 +2207,24 @@
     <row r="161" spans="1:2" s="2" customFormat="1"/>
     <row r="175" spans="1:2">
       <c r="A175" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B176" s="9"/>
+      <c r="A176" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B176" s="12"/>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B177" s="9"/>
+      <c r="A177" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B177" s="12"/>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2216,16 +2232,16 @@
     <sortCondition descending="1" ref="A5"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A146:B146"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A146:B146"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.requirement/相关类图/实现类图/中英文词汇对照汇总.xlsx
+++ b/01.requirement/相关类图/实现类图/中英文词汇对照汇总.xlsx
@@ -978,10 +978,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mainCategory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主营品类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1219,6 +1215,10 @@
   </si>
   <si>
     <t xml:space="preserve">decorationApproveStatusId </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainCategoryCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1648,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="171" spans="1:2" s="10" customFormat="1">
       <c r="A171" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>220</v>
@@ -2674,63 +2674,63 @@
     </row>
     <row r="179" spans="1:2" s="10" customFormat="1">
       <c r="A179" s="3" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="180" spans="1:2" s="10" customFormat="1">
       <c r="A180" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="181" spans="1:2" s="10" customFormat="1">
       <c r="A181" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="182" spans="1:2" s="10" customFormat="1">
       <c r="A182" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="183" spans="1:2" s="10" customFormat="1">
       <c r="A183" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="184" spans="1:2" s="10" customFormat="1">
       <c r="A184" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="185" spans="1:2" s="10" customFormat="1">
       <c r="A185" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="186" spans="1:2" s="10" customFormat="1">
       <c r="A186" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>83</v>
@@ -2738,142 +2738,142 @@
     </row>
     <row r="187" spans="1:2" s="10" customFormat="1">
       <c r="A187" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="188" spans="1:2" s="10" customFormat="1">
       <c r="A188" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="189" spans="1:2" s="10" customFormat="1">
       <c r="A189" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="190" spans="1:2" s="10" customFormat="1">
       <c r="A190" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="191" spans="1:2" s="10" customFormat="1">
       <c r="A191" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="192" spans="1:2" s="10" customFormat="1">
       <c r="A192" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="193" spans="1:2" s="10" customFormat="1">
       <c r="A193" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="194" spans="1:2" s="10" customFormat="1">
       <c r="A194" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="195" spans="1:2" s="10" customFormat="1">
       <c r="A195" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="196" spans="1:2" s="10" customFormat="1">
       <c r="A196" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B196" s="3"/>
     </row>
     <row r="197" spans="1:2" s="10" customFormat="1">
       <c r="A197" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="198" spans="1:2" s="10" customFormat="1">
       <c r="A198" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="199" spans="1:2" s="10" customFormat="1">
       <c r="A199" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="200" spans="1:2" s="9" customFormat="1">
       <c r="A200" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="201" spans="1:2" s="9" customFormat="1">
       <c r="A201" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B201" s="3"/>
     </row>
     <row r="202" spans="1:2" s="9" customFormat="1">
       <c r="A202" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="17.25" customHeight="1">
       <c r="A203" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2882,24 +2882,24 @@
     </row>
     <row r="206" spans="1:2" s="9" customFormat="1">
       <c r="A206" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B206" s="6"/>
     </row>
     <row r="207" spans="1:2" s="9" customFormat="1">
       <c r="A207" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="208" spans="1:2" s="9" customFormat="1">
       <c r="A208" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="209" spans="1:16384" s="9" customFormat="1"/>
@@ -68474,32 +68474,32 @@
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/01.requirement/相关类图/实现类图/中英文词汇对照汇总.xlsx
+++ b/01.requirement/相关类图/实现类图/中英文词汇对照汇总.xlsx
@@ -990,15 +990,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">agentLevel </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>代理级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>businessNature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1221,6 +1213,14 @@
     <t>mainCategoryCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>agentLevelCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessNatureCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1340,17 +1340,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1648,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1660,10 +1660,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
@@ -2035,10 +2035,10 @@
     </row>
     <row r="52" spans="1:2" s="2" customFormat="1"/>
     <row r="54" spans="1:2">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="14"/>
+      <c r="B54" s="13"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
@@ -2122,10 +2122,10 @@
     </row>
     <row r="67" spans="1:2" s="2" customFormat="1"/>
     <row r="69" spans="1:2">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="14"/>
+      <c r="B69" s="13"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
@@ -2225,10 +2225,10 @@
     </row>
     <row r="84" spans="1:3" s="2" customFormat="1"/>
     <row r="86" spans="1:3">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B86" s="14"/>
+      <c r="B86" s="13"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
@@ -2317,10 +2317,10 @@
     </row>
     <row r="99" spans="1:3" s="2" customFormat="1"/>
     <row r="101" spans="1:3">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B101" s="14"/>
+      <c r="B101" s="13"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
@@ -2396,10 +2396,10 @@
     </row>
     <row r="117" spans="1:2" s="2" customFormat="1"/>
     <row r="119" spans="1:2">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B119" s="14"/>
+      <c r="B119" s="13"/>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
@@ -2427,10 +2427,10 @@
     </row>
     <row r="130" spans="1:2" s="2" customFormat="1"/>
     <row r="133" spans="1:2">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="14"/>
+      <c r="B133" s="13"/>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="4" t="s">
@@ -2482,10 +2482,10 @@
     </row>
     <row r="144" spans="1:2" s="2" customFormat="1"/>
     <row r="146" spans="1:2">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B146" s="14"/>
+      <c r="B146" s="13"/>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="3" t="s">
@@ -2564,7 +2564,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" s="10" customFormat="1">
-      <c r="A164" s="15" t="s">
+      <c r="A164" s="12" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="171" spans="1:2" s="10" customFormat="1">
       <c r="A171" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>220</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="179" spans="1:2" s="10" customFormat="1">
       <c r="A179" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>240</v>
@@ -2690,47 +2690,47 @@
     </row>
     <row r="181" spans="1:2" s="10" customFormat="1">
       <c r="A181" s="3" t="s">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="182" spans="1:2" s="10" customFormat="1">
       <c r="A182" s="3" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="183" spans="1:2" s="10" customFormat="1">
       <c r="A183" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="184" spans="1:2" s="10" customFormat="1">
       <c r="A184" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="185" spans="1:2" s="10" customFormat="1">
       <c r="A185" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="186" spans="1:2" s="10" customFormat="1">
       <c r="A186" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>83</v>
@@ -2738,142 +2738,142 @@
     </row>
     <row r="187" spans="1:2" s="10" customFormat="1">
       <c r="A187" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" spans="1:2" s="10" customFormat="1">
       <c r="A188" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="189" spans="1:2" s="10" customFormat="1">
       <c r="A189" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="190" spans="1:2" s="10" customFormat="1">
       <c r="A190" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="191" spans="1:2" s="10" customFormat="1">
       <c r="A191" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="192" spans="1:2" s="10" customFormat="1">
       <c r="A192" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="193" spans="1:2" s="10" customFormat="1">
       <c r="A193" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="194" spans="1:2" s="10" customFormat="1">
       <c r="A194" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="195" spans="1:2" s="10" customFormat="1">
       <c r="A195" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="196" spans="1:2" s="10" customFormat="1">
       <c r="A196" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B196" s="3"/>
     </row>
     <row r="197" spans="1:2" s="10" customFormat="1">
       <c r="A197" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="198" spans="1:2" s="10" customFormat="1">
       <c r="A198" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="199" spans="1:2" s="10" customFormat="1">
       <c r="A199" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="200" spans="1:2" s="9" customFormat="1">
       <c r="A200" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="201" spans="1:2" s="9" customFormat="1">
       <c r="A201" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B201" s="3"/>
     </row>
     <row r="202" spans="1:2" s="9" customFormat="1">
       <c r="A202" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="17.25" customHeight="1">
       <c r="A203" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2882,24 +2882,24 @@
     </row>
     <row r="206" spans="1:2" s="9" customFormat="1">
       <c r="A206" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B206" s="6"/>
     </row>
     <row r="207" spans="1:2" s="9" customFormat="1">
       <c r="A207" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="208" spans="1:2" s="9" customFormat="1">
       <c r="A208" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="209" spans="1:16384" s="9" customFormat="1"/>
@@ -68474,32 +68474,32 @@
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
